--- a/output/google_maps_data_SPBU_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_SPBU_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Kota+Yogyakarta/@-7.8056335,110.3636606,13z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
           <t>(0274) 588972</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.801775</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.801775</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.385773</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.09+Semaki/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a577bbf0eb4d3:0x27b4a907ae87e8fd!8m2!3d-7.801775!4d110.3857727!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzp_rqfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,25 +560,24 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>-7.790452</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.790452</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.380183</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+COCO+41.551.01/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d4a089d54f:0xdb5f2c2f6a8ebd4!8m2!3d-7.790452!4d110.3801828!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm1sn4f4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+COCO+41.551.01/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d4a089d54f:0xdb5f2c2f6a8ebd4!8m2!3d-7.790452!4d110.3801828!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm1sn4f4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -612,25 +604,24 @@
           <t>(0274) 566003</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.79196</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.79196</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.357269</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.14+Gedong+Tengen/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582184ce34c7:0xc6b0c9ee611c84ef!8m2!3d-7.7919598!4d110.357269!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm4h4db9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -645,25 +636,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>-7.785543</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.785543</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.387976</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.16+Munggur/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d036a3740b:0xe15ba745e27ddae5!8m2!3d-7.7855425!4d110.3879761!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hcz1jfhc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -686,25 +676,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.785728</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.785728</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.352793</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Tegalrejo+41.552.02/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a581791b09f03:0x6d5488ff399afada!8m2!3d-7.785728!4d110.3527928!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm4dw4ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Tegalrejo+41.552.02/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a581791b09f03:0x6d5488ff399afada!8m2!3d-7.785728!4d110.3527928!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm4dw4ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -727,25 +716,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>-7.802065</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.802065</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.378416</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Sentul+Pakualaman+44.551.15/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5782750837ff:0xaab35bfaf1f01e97!8m2!3d-7.8020653!4d110.3784159!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzplgq4v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -764,25 +752,24 @@
           <t>(0274) 523971</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.781221</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.781221</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.352005</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.11/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583dbf8ea3f5:0x81feef082836a862!8m2!3d-7.7812209!4d110.352005!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm2tfbld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -805,25 +792,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>-7.812302</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.812302</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.351409</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Bugisan+44.551.04/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57eb811e3525:0xee055c86d4e4b4d6!8m2!3d-7.8123021!4d110.3514086!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbymtw67?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -842,25 +828,24 @@
           <t>0813-2865-0650</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.815606</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.815606</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.374246</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+KASAM+4455117/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a572b577a845b:0x32aedd5f13c8d609!8m2!3d-7.8156056!4d110.374246!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11rr_lwllh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -875,25 +860,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.815616</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.815616</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.374214</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Ada+Dexlite/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57d84d34bc91:0x530fdf5f3c7a0db6!8m2!3d-7.815616!4d110.3742139!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11g__42xg_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -912,25 +896,24 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>-7.78169</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.78169</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.367504</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Tugu+44.55215/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5830a2c4d223:0x68058762f90181ff!8m2!3d-7.7816899!4d110.3675038!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm3qfcv9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -945,25 +928,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.818984</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.818984</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.355937</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.01+Dukuh/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57bf982eb4d9:0x872b99e2c03dd1be!8m2!3d-7.8189845!4d110.3559367!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbx0ry5x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -986,25 +968,24 @@
           <t>(0274) 385442</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.824083</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.824083</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.377991</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Lowanu+44.551.13/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57a52919ffff:0xe5624f1710ffacbb!8m2!3d-7.8240828!4d110.3779905!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm23xw87?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1023,25 +1004,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.1</v>
+        <v>-7.818074</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.818074</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.390397</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.551.05+Gambiran/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57127e4a1f9f:0x604877452a25e1aa!8m2!3d-7.8180737!4d110.3903973!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzslk1h5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1064,25 +1044,24 @@
           <t>(0274) 410175</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>-7.836149</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.836149</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.393358</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.11+Giwangan/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a56e286d70123:0x98cb2185e56eb363!8m2!3d-7.8361488!4d110.3933584!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptv_6tq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1097,25 +1076,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.802114</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.802114</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.378393</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+SPBU+Yogyakarta/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57619cdc7543:0x9cab104927cfdb56!8m2!3d-7.8021144!4d110.3783925!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fd6lw9zx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1138,25 +1116,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>-7.824502</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.824502</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.367444</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.08+Jogokariyan/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57a5263ea5d5:0xd2b1d24b3507131!8m2!3d-7.8245019!4d110.367444!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbw_v9p6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,25 +1156,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.3</v>
+        <v>-7.790493</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.790493</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.38011</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+bensin/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59a0609fcf2d:0xead6cd9415a7504e!8m2!3d-7.7904926!4d110.3801097!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11kj20p564?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,25 +1192,24 @@
           <t>0812-2813-1123</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>-7.798051</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.798051</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.392638</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Timoho/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57cc9a5a18f1:0x7f770534ec447066!8m2!3d-7.798051!4d110.3926384!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h1z2n3jx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1253,25 +1228,24 @@
           <t>(0274) 380114</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>-7.819075</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.819075</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.356049</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44-55101/@-7.8190748,110.2839508,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57bfee8f6fc3:0x88bb67bd92079823!8m2!3d-7.8190748!4d110.3560486!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrh8pc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1290,25 +1264,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.4</v>
+        <v>-7.800586</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.800586</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.345205</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.06+Kadipiro/@-7.8190748,110.2839508,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57f7198aef79:0x4a8b7c6c61e2672a!8m2!3d-7.8005864!4d110.3452046!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztnm452?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1323,25 +1296,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>-7.78301</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.78301</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.408051</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+COCO+Pertamina+41.552.01+Laksda+Adisucipto/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59e8b1fbc093:0xc427e0048f072dd5!8m2!3d-7.7830104!4d110.4080506!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptvrqn5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+COCO+Pertamina+41.552.01+Laksda+Adisucipto/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59e8b1fbc093:0xc427e0048f072dd5!8m2!3d-7.7830104!4d110.4080506!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptvrqn5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -1364,25 +1336,24 @@
           <t>(0274) 488518</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.2</v>
+        <v>-7.783631</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.783631</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.406586</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.10/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59e89e585be9:0x6ea682fa75be5af7!8m2!3d-7.7836306!4d110.4065861!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b64k_30t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1401,25 +1372,24 @@
           <t>(0274) 452029</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>-7.837627</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.837627</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.399211</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.12+Singosaren/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a56e1b2674217:0x293a3d11b1973040!8m2!3d-7.8376271!4d110.3992108!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzyl1ky7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1438,25 +1408,24 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>-7.844851</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.844851</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.360998</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.18+Sewon/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a564ed69c483d:0xedfdeab803cb8b92!8m2!3d-7.8448515!4d110.3609983!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpr61t_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.18+Sewon/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a564ed69c483d:0xedfdeab803cb8b92!8m2!3d-7.8448515!4d110.3609983!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpr61t_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1479,25 +1448,24 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.2</v>
+        <v>-7.755951</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.755951</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.382513</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.09+Kentungan/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59aa45912a81:0x68458fbcaea50d9f!8m2!3d-7.7559509!4d110.3825131!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs_15hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1512,25 +1480,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>-7.772035</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.772035</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.360024</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Kricak+Tegalrejo/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5901257ca957:0x751239ce3f67b3ab!8m2!3d-7.7720346!4d110.3600241!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11rcd9fth4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1545,25 +1512,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3.1</v>
+      </c>
       <c r="F30" t="n">
-        <v>3.1</v>
+        <v>-7.785756</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.785756</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.352706</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Tegalrejo/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5963d73bf9cd:0x532f81bcc964bf53!8m2!3d-7.785756!4d110.3527056!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11kb1sghtt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1586,25 +1552,24 @@
           <t>(0274) 584470</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>-7.760211</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.760211</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.369296</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.08+Monjali/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5851acb39c79:0x53cf455d8efca403!8m2!3d-7.7602111!4d110.3692957!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pty9wf8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1623,25 +1588,24 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.2</v>
+        <v>-7.810999</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.810999</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.404631</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.02+Ketandan/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57479d2cbe35:0x7debc49faa6cac12!8m2!3d-7.810999!4d110.4046305!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztzydpb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1656,25 +1620,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.787291</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.787291</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.388384</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mini+IST+AKPRIND/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59be02ddd20d:0x1d4a41f041cac83e!8m2!3d-7.7872911!4d110.3883835!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11flbpl6p_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1693,25 +1656,24 @@
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>-7.798439</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.798439</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.408291</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.03/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a575952cb5cf1:0xaaf3faf09697a725!8m2!3d-7.7984393!4d110.408291!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrh8pbg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1730,25 +1692,24 @@
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>2.5</v>
+        <v>-7.815651</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.815651</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.37422</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTAMINA/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a579f6821dc69:0x3a1d79849d3c7b2c!8m2!3d-7.8156512!4d110.3742199!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11j_161_gr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1763,25 +1724,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>2.5</v>
+        <v>-7.781176</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.781176</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.352006</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+My+Pertamina+SPBU+Godean/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a590ab4a3c343:0xd72c71c7aca0144f!8m2!3d-7.7811762!4d110.3520062!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11qldsd4ps?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1800,25 +1760,24 @@
           <t>0815-6511-313</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.4</v>
+        <v>-7.812357</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.812357</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.351392</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/I+LOVE+NITROGEN+BUGISAN/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57e19f8a5b99:0x6904e34a59395ad9!8m2!3d-7.8123575!4d110.3513917!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h10df3k7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1833,25 +1792,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F38" t="n">
-        <v>3.7</v>
+        <v>-7.78161</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.78161</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.367257</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+(Pangkalan+LPG+3Kg+PT.Budi+Bakti+Mulia)/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5830a316aa8d:0x4b43d8f6ebbaa82d!8m2!3d-7.7816104!4d110.3672569!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11g6bg8hbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1866,25 +1824,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F39" t="n">
-        <v>3.7</v>
+        <v>-7.836343</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.836343</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.393107</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Outlet+Green+Nitrogen+SPBU+44+-+55111/@-7.8363429,110.3210094,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a56e28591e6a7:0x58aebdf22e53bfd0!8m2!3d-7.8363429!4d110.3931072!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11g6yyjzhk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1899,25 +1856,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.4</v>
+        <v>-7.782086</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.782086</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.37218</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Nitrogen+Terban/@-7.8363429,110.3210094,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5975eaaa4527:0x1e8bcae7a62cb6cf!8m2!3d-7.782086!4d110.3721803!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h4nb8hc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1940,25 +1896,24 @@
           <t>0855-1801-777</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-7.790201</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.790201</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.379834</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Outlet+Green+Nitrogen+SPBU+41+-+55101/@-7.8363429,110.3210094,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d4a1f8ae15:0x6ca1a6614a847e8d!8m2!3d-7.7902007!4d110.3798339!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBCXRpcmVfc2hvcOABAA!16s%2Fg%2F11c71ln26h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1973,25 +1928,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.807772</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.807772</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.371705</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POM+BENSIN+Kerkop/@-7.8363429,110.3210094,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57001a190dfd:0xed68f86381e0ea24!8m2!3d-7.8077719!4d110.3717049!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11vqn47gzx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2006,25 +1960,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>-7.781276</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.781276</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.352049</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+flazz+jogja/@-7.7812764,110.2799507,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59ae2fa0040b:0xd6b0c8f6a917d676!8m2!3d-7.7812764!4d110.3520485!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11khrk7dzj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2039,25 +1992,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>-7.817997</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.817997</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.390215</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/NITROGEN/@-7.817997,110.3181173,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a570d8019e81f:0x278e814d9a81d08!8m2!3d-7.817997!4d110.3902151!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cky7q66z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2076,25 +2028,24 @@
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.3</v>
+        <v>-7.746823</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.746823</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.353978</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Ringroad+Jombor+Pertamina+43.552.18/@-7.7468233,110.2818802,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a588d3f5abc33:0xa786aba8e7f07246!8m2!3d-7.7468233!4d110.353978!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjj5c9wj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Ringroad+Jombor+Pertamina+43.552.18/@-7.7468233,110.2818802,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a588d3f5abc33:0xa786aba8e7f07246!8m2!3d-7.7468233!4d110.353978!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjj5c9wj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -2117,25 +2068,24 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-7.821525</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.821525</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.361652</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kios+Bensin+Pak+Kardi/@-7.8215252,110.2895546,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57c6fd4c7f51:0x23c2ff3573e27077!8m2!3d-7.8215252!4d110.3616524!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11frdj78qz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2150,25 +2100,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.783101</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.783101</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.436195</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.04+Adisucipto/@-7.7831014,110.3640972,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a053c8974b1:0xc27ce4dd8810e67a!8m2!3d-7.7831014!4d110.436195!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr7lzm_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2187,25 +2136,24 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>-7.790409</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.790409</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.380111</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pt.Pertamina/@-7.7904093,110.3080136,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a592ec5bfc36b:0x2e466ad22055784d!8m2!3d-7.7904093!4d110.3801114!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fjpfymlw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2224,25 +2172,24 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.3</v>
+        <v>-7.738825</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.738825</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.362607</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.19+Mlati+Baru/@-7.7904093,110.3080136,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58e93a03a78f:0xaaa5b5667903ba6d!8m2!3d-7.7388252!4d110.3626073!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b72qn4hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2261,25 +2208,24 @@
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-7.818917</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.818917</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.324458</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.14+Tamantirto/@-7.8189172,110.2523601,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af873734ceb1d:0x41bf531c420b8349!8m2!3d-7.8189172!4d110.3244579!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqczckx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.14+Tamantirto/@-7.8189172,110.2523601,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af873734ceb1d:0x41bf531c420b8349!8m2!3d-7.8189172!4d110.3244579!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqczckx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -2298,25 +2244,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>-7.832491</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.832491</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.398018</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bensin+eceran/@-7.8324912,110.3259197,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5761f0d5abbd:0x61827559b082eead!8m2!3d-7.8324912!4d110.3980175!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11sm__x6zb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2335,25 +2280,24 @@
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>-7.773979</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.773979</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.410335</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Babarsari+44.552.13./@-7.7739794,110.3382375,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59efe41573c7:0x175d08282e6be117!8m2!3d-7.7739794!4d110.4103353!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b636d6bh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2368,25 +2312,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.1</v>
+        <v>-7.766247</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.766247</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.431646</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PertaminaTajem+44.552.17/@-7.7739794,110.3382375,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a26a059914d:0x5fc0da83f2005bff!8m2!3d-7.7662469!4d110.4316464!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bv3x_r28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2409,25 +2352,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.1</v>
+        <v>-7.820712</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.820712</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.42155</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.10+Mantup/@-7.7739794,110.3382375,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5733c636ab4d:0x51b990fe909ffaef!8m2!3d-7.8207124!4d110.4215503!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzvzb386?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2450,25 +2392,24 @@
           <t>(0274) 496130</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.4</v>
+        <v>-7.761272</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.761272</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.476938</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.01+Kalasan/@-7.7612724,110.4048406,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5af709e55801:0x8281ba21678e826c!8m2!3d-7.7612724!4d110.4769384!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzshg802?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2491,25 +2432,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.1</v>
+        <v>-7.852853</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.852853</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.341899</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.11+Pucung+Pendowoharjo/@-7.8028087,110.2410774,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5624b913ac87:0xcf757a71874e87f4!8m2!3d-7.8528534!4d110.3418986!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptwq9bl2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.11+Pucung+Pendowoharjo/@-7.8028087,110.2410774,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5624b913ac87:0xcf757a71874e87f4!8m2!3d-7.8528534!4d110.3418986!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptwq9bl2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>7 jam lalu</t>
         </is>
@@ -2528,25 +2468,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>-7.814045</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.814045</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.398539</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Mini+Artomoro/@-7.8140455,110.3264411,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a576b3b617785:0x73477c75074ce30c!8m2!3d-7.8140455!4d110.3985389!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11r_vnw9_5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2569,25 +2508,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.4</v>
+        <v>-7.773564</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.773564</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.315188</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.06+Godean/@-7.7735639,110.2430904,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af7c38fd9b029:0xf39831c5f0b0d20c!8m2!3d-7.7735639!4d110.3151882!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzq82xsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.06+Godean/@-7.7735639,110.2430904,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af7c38fd9b029:0xf39831c5f0b0d20c!8m2!3d-7.7735639!4d110.3151882!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzq82xsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2614,25 +2552,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.2</v>
+        <v>-7.732681</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.732681</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.363662</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mulungan%2FMlati/@-7.7326805,110.2915641,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58c2f62b0391:0xf1ab080746010a2f!8m2!3d-7.7326805!4d110.3636619!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11ckky6xw4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2651,25 +2588,24 @@
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.6</v>
+        <v>-7.78562</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.78562</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.35292</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Musholla+SPBU+Tegalrejo/@-7.7326805,110.2915641,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a581793dd2301:0x5e2da9caf70d6c76!8m2!3d-7.7856199!4d110.3529203!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBB211c2FsbGHgAQA!16s%2Fg%2F1pzxh22m8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2688,25 +2624,24 @@
           <t>0815-4824-9199</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>-7.78905</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.78905</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.389158</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/pertamini+pom+mini+talok/@-7.7326805,110.2915641,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5900676c48b5:0x5702af06879e0ff1!8m2!3d-7.7890502!4d110.3891575!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11wwhktyx2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2729,25 +2664,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.1</v>
+        <v>-7.860971</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.860971</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.340546</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.03+Diro/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a56185aa4e515:0x450fd3a3d70fb09a!8m2!3d-7.860971!4d110.340546!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzphf0_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2762,25 +2696,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>-7.815529</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.815529</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.374183</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Nitrogen+Enduro/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a579f686da353:0x6a77d58befee5312!8m2!3d-7.8155294!4d110.3741829!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h_82p582?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2795,25 +2728,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>-7.727933</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.727933</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.380284</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Palagan+44.555.09/@-7.7279328,110.3081859,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59273e8c7237:0x334190d8ad398fde!8m2!3d-7.7279328!4d110.3802837!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzxst7tg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2829,22 +2761,21 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>-7.786886</v>
+      </c>
       <c r="G65" t="n">
-        <v>-7.786886</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.360215</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POM+MINI/@-7.7279328,110.3081859,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a599667a853c3:0x85e80174b2d9b126!8m2!3d-7.7868864!4d110.3602151!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11tx5wt6pz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2867,25 +2798,24 @@
           <t>(0274) 368591</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.2</v>
+        <v>-7.891576</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.891576</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.327278</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+Petrol+Station/@-7.8915761,110.2551806,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59cdb8c346cd:0x459d9a703a2e3bd7!8m2!3d-7.8915761!4d110.3272784!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr8lvdm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2908,25 +2838,24 @@
           <t>0857-9908-4844</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.3</v>
+        <v>-7.885892</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.885892</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.35244</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.03+Gabusan/@-7.8915761,110.2551806,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a55e71a7b799d:0x64d8811c212f7a19!8m2!3d-7.8858922!4d110.3524401!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzyj2mtj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2941,25 +2870,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F68" t="n">
-        <v>3.7</v>
+        <v>-7.822413</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.822413</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.368245</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bengkel+Sahlan/@-7.8224133,110.2961471,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57ff5f9a8d07:0xa622e4e3c76f372d!8m2!3d-7.8224133!4d110.3682449!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h6nr2rpm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2983,22 +2911,21 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>-7.825209</v>
+      </c>
       <c r="G69" t="n">
-        <v>-7.825209</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.394851</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bensin+Ecer+PERTAGAR/@-7.8224133,110.2961471,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a572db6a7eda1:0x651c32ad6e8a3f85!8m2!3d-7.8252091!4d110.3948506!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11vc35c21y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3013,25 +2940,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F70" t="n">
-        <v>3.7</v>
+        <v>-7.782944</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.782944</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.358326</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tambal+ban/@-7.8224133,110.2961471,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5957b53ce147:0xfc1f4cd0930be089!8m2!3d-7.7829436!4d110.3583264!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hm7rvl5n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3050,25 +2976,24 @@
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.2</v>
+        <v>-7.732218</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.732218</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.325538</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Cebongan/@-7.7322179,110.25344,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af61eb7292e7d:0x21a50c61e6bb540c!8m2!3d-7.7322179!4d110.3255378!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11d_76bsfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Cebongan/@-7.7322179,110.25344,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af61eb7292e7d:0x21a50c61e6bb540c!8m2!3d-7.7322179!4d110.3255378!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11d_76bsfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -3091,25 +3016,24 @@
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.2</v>
+        <v>-7.774649</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.774649</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.462672</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalasan+44.555.15/@-7.774649,110.3905742,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a66182cf779:0x69caa64a893cfa9d!8m2!3d-7.774649!4d110.462672!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzsncs5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3132,25 +3056,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.4</v>
+        <v>-7.708579</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.708579</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.354762</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.02+Helsen/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5f3602bababb:0x3d988e8eb2d0bb04!8m2!3d-7.708579!4d110.354762!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv1ctjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3173,25 +3096,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.4</v>
+        <v>-7.797402</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.797402</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.380077</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tambal+Ban+Motor+Subur+Jaya/@-7.7974022,110.3079794,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57432421250b:0xd3d62c167ccc4a0f!8m2!3d-7.7974022!4d110.3800772!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11f6l1hdxr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3206,25 +3128,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.2</v>
+        <v>-7.704977</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.704977</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.431184</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mindi/@-7.7049775,110.3590863,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5c03e2b64397:0x3c44f01bd32377a7!8m2!3d-7.7049775!4d110.4311841!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqcl92r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3247,25 +3168,24 @@
           <t>(0274) 498326</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.5</v>
+        <v>-7.779097</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.779097</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.455737</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalitirto+44.555.14/@-7.7790969,110.3836387,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a6dd145e295:0x453cf152fb6f0a61!8m2!3d-7.7790969!4d110.4557365!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0p_qh4_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalitirto+44.555.14/@-7.7790969,110.3836387,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a6dd145e295:0x453cf152fb6f0a61!8m2!3d-7.7790969!4d110.4557365!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0p_qh4_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -3288,25 +3208,24 @@
           <t>(0274) 4398704</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.3</v>
+        <v>-7.788445</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.788445</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.482596</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.21+Bokoharjo/@-7.7790969,110.3836387,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a825c529dc5:0xe286bee81353bea5!8m2!3d-7.7884453!4d110.4825956!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzq_nslc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3321,25 +3240,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>-7.825553</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.825553</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.387531</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pk+Marto/@-7.8255532,110.3154336,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57c83cd409d5:0xed3f3bb4851e5eb8!8m2!3d-7.8255532!4d110.3875314!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11nxpn15jn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3354,25 +3272,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.3</v>
+        <v>-7.695219</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.695219</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.345778</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.32+Krapyak/@-7.695219,110.2736801,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5f555daa3461:0xfac0049a274727f0!8m2!3d-7.695219!4d110.3457779!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h22vrpbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3388,22 +3305,21 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-7.800237</v>
+      </c>
       <c r="G80" t="n">
-        <v>-7.800237</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.38771</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+mini/@-7.8002374,110.3156118,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a575d6e819d1d:0x9eef30f8b6a2dafa!8m2!3d-7.8002374!4d110.3877096!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11p_6b5qj1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3422,25 +3338,24 @@
           <t>(0274) 6460919</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.3</v>
+        <v>-7.915028</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.915028</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.381934</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.05+Imogiri/@-7.9150278,110.3098362,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5454f5862271:0x183e009ddd47814a!8m2!3d-7.9150278!4d110.381934!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs424__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3455,25 +3370,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.5</v>
+        <v>-7.696461</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.696461</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.41752</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.35+UII/@-7.6964607,110.345422,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5ff01b4f99f1:0xb4396877f6a6d96b!8m2!3d-7.6964607!4d110.4175198!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fl7vx9mf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3488,25 +3402,24 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>-7.792655</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.792655</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.39261</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Refill+gas+kaleng/@-7.7926547,110.3205117,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59b70521c135:0x2c951bd59b290c0c!8m2!3d-7.7926547!4d110.3926095!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11sfgwtd4y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3529,25 +3442,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.5</v>
+        <v>-7.812904</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.812904</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.266961</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.10+Candimas/@-7.8129039,110.1948636,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af9c4eea0d6c5:0xe41454d225bf9aff!8m2!3d-7.8129039!4d110.2669614!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzwfckgm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.10+Candimas/@-7.8129039,110.1948636,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af9c4eea0d6c5:0xe41454d225bf9aff!8m2!3d-7.8129039!4d110.2669614!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzwfckgm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3574,25 +3486,24 @@
           <t>(0274) 4353260</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.3</v>
+        <v>-7.828123</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.828123</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.447537</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.557.04/@-7.8281231,110.3754389,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a50de78df6139:0xda5dc6eebf57936a!8m2!3d-7.8281231!4d110.4475367!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztqj6zh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.557.04/@-7.8281231,110.3754389,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a50de78df6139:0xda5dc6eebf57936a!8m2!3d-7.8281231!4d110.4475367!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztqj6zh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -3611,25 +3522,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.3</v>
+        <v>-7.723719</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.723719</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.30788</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Seyegan/@-7.7237191,110.2357817,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af60cdab678f7:0x44d95929ce8cc39a!8m2!3d-7.7237191!4d110.3078795!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjh_mhjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3645,22 +3555,21 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>-7.788201</v>
+      </c>
       <c r="G87" t="n">
-        <v>-7.788201</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.379775</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pangkalan+Elpiji+%26+Kost+Putri+Roso/@-7.7882008,110.3076769,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a591b6adb74bb:0x2a2e50ee65ecd72c!8m2!3d-7.7882008!4d110.3797747!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pz7bvpzq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3683,25 +3592,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.3</v>
+        <v>-7.867112</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.867112</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.149908</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.556.02+Wates+Kota/@-7.8671122,110.0778103,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7afb3b0fff0d71:0x329cfd0ea516c690!8m2!3d-7.8671122!4d110.1499081!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzw588nd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.556.02+Wates+Kota/@-7.8671122,110.0778103,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7afb3b0fff0d71:0x329cfd0ea516c690!8m2!3d-7.8671122!4d110.1499081!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzw588nd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -3720,25 +3628,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.4</v>
+        <v>-7.67649</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.67649</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.336834</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Medari/@-7.6764903,110.2647362,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5fb75d046cfb:0x132f658774e66be0!8m2!3d-7.6764903!4d110.336834!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11js46yyzf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3761,25 +3668,24 @@
           <t>0818-8288-4069</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>-7.782152</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.782152</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.37212</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kopi+Kenangan+-+SPBU+Terban+Yogyakarta/@-7.7821516,110.3000226,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5921fa85b82f:0xf294955390d92775!8m2!3d-7.7821516!4d110.3721204!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11ybxz3bxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kopi+Kenangan+-+SPBU+Terban+Yogyakarta/@-7.7821516,110.3000226,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5921fa85b82f:0xf294955390d92775!8m2!3d-7.7821516!4d110.3721204!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11ybxz3bxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3802,25 +3708,24 @@
           <t>0812-9681-3350</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.3</v>
+        <v>-7.7533</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.7533</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.446295</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kadisoka+44.555.33/@-7.7533002,110.3741968,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5b37ddacff99:0x452cb5488d60807f!8m2!3d-7.7533002!4d110.4462946!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h712yv7x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kadisoka+44.555.33/@-7.7533002,110.3741968,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5b37ddacff99:0x452cb5488d60807f!8m2!3d-7.7533002!4d110.4462946!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h712yv7x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -3840,22 +3745,21 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>-7.814174</v>
+      </c>
       <c r="G92" t="n">
-        <v>-7.814174</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.397083</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+mini+botol/@-7.814174,110.3249852,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57006ad4a8bd:0x7f009d191a9afcfa!8m2!3d-7.814174!4d110.397083!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11lnrws_21?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3870,25 +3774,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.4</v>
+        <v>-7.819996</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.819996</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.274543</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+PERTASHOP+KALIURANG/@-7.8199962,110.2024456,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af97e8a046565:0x159074519b62a195!8m2!3d-7.8199962!4d110.2745434!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11p6wsrq4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+PERTASHOP+KALIURANG/@-7.8199962,110.2024456,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af97e8a046565:0x159074519b62a195!8m2!3d-7.8199962!4d110.2745434!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11p6wsrq4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3915,25 +3818,24 @@
           <t>(0293) 588200</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F94" t="n">
-        <v>4.4</v>
+        <v>-7.640221</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.640221</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.322548</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.564.04+Baledono/@-7.6402214,110.2504497,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af5510d1769db:0xab5b325a7a9b09ee!8m2!3d-7.6402214!4d110.3225475!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6sdwy69?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.564.04+Baledono/@-7.6402214,110.2504497,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af5510d1769db:0xab5b325a7a9b09ee!8m2!3d-7.6402214!4d110.3225475!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6sdwy69?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -3960,25 +3862,24 @@
           <t>(0293) 588200</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.4</v>
+        <v>-7.817234</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.817234</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.248104</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.14+UAD/@-7.8172337,110.1760063,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af9ee089d9be7:0x4ac352dcf92f0a7b!8m2!3d-7.8172337!4d110.2481041!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0t9syxv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.14+UAD/@-7.8172337,110.1760063,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af9ee089d9be7:0x4ac352dcf92f0a7b!8m2!3d-7.8172337!4d110.2481041!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0t9syxv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -4001,25 +3902,24 @@
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.3</v>
+        <v>-7.992224</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.992224</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.315543</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.13+Kretek/@-7.9922237,110.2434455,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7b006efbb257ed:0xd6678a673e55556c!8m2!3d-7.9922237!4d110.3155433!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bzrjg_4s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.13+Kretek/@-7.9922237,110.2434455,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7b006efbb257ed:0xd6678a673e55556c!8m2!3d-7.9922237!4d110.3155433!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bzrjg_4s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -4046,25 +3946,24 @@
           <t>(0274) 2820123</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F97" t="n">
-        <v>4.3</v>
+        <v>-7.756319</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.756319</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.211022</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.556.05+Kenteng+Nanggulan/@-7.756319,110.1389242,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af118a32e2297:0x47aad16b8c2a3a04!8m2!3d-7.756319!4d110.211022!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzssky_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.556.05+Kenteng+Nanggulan/@-7.756319,110.1389242,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af118a32e2297:0x47aad16b8c2a3a04!8m2!3d-7.756319!4d110.211022!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzssky_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -4091,25 +3990,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.2</v>
+        <v>-7.652509</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.652509</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.373582</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Kembang+Arum/@-7.652509,110.3014842,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5fb5ee44b745:0xeaf5c069a49d4f52!8m2!3d-7.652509!4d110.373582!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpngswy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Kembang+Arum/@-7.652509,110.3014842,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5fb5ee44b745:0xeaf5c069a49d4f52!8m2!3d-7.652509!4d110.373582!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpngswy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -4136,25 +4034,24 @@
           <t>(021) 26533555</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>-7.782194</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.782194</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.372178</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BTN+SPBU+Terban/@-7.7821939,110.3000806,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583176d9f54b:0xcc15907c1c776d00!8m2!3d-7.7821939!4d110.3721784!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBA2F0beABAA!16s%2Fg%2F1pzpq45vd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BTN+SPBU+Terban/@-7.7821939,110.3000806,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583176d9f54b:0xcc15907c1c776d00!8m2!3d-7.7821939!4d110.3721784!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBA2F0beABAA!16s%2Fg%2F1pzpq45vd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
